--- a/biology/Botanique/Chardon_vulgaire/Chardon_vulgaire.xlsx
+++ b/biology/Botanique/Chardon_vulgaire/Chardon_vulgaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cirsium vulgare
 Le Cirse commun (Cirsium vulgare), ou Cirse à feuilles lancéolées, est une espèce de plante à fleurs appartenant au genre Cirsium et à la famille des Astéracées (ou Composées).
@@ -512,17 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante bisannuelle.
-Aspect général
-Cirsium vulgare est une grande plante (de 30 à plus de 150 cm de hauteur) présentant des tiges rigides épineuses.
-Feuilles
-Les feuilles sont alternes, vertes sur les deux faces, couvertes d'épines sur la face supérieure.
-Fleurs
-L'inflorescence, qui apparaît entre juin et octobre, est un racème de capitules et mesure de 30 à 50 mm. Les fleurs, roses, sont hermaphrodites et mellifères[1]. La pollinisation  entomogame ou autogame.
-Fruits
-Le fruit est un akène soyeux, semblable à celui du pissenlit[1], qui se dissémine par anémochorie.
 </t>
         </is>
       </c>
@@ -548,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Noms vernaculaires</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Cirse commun a de nombreuses appellations locales dont Cirse à feuilles lancéolées ; Cirse commun ; Cirse lancéolé ; Chardon lancéolé ; Chardon vulgaire ou commun ; Gros chardon ; Piqueux.
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cirsium vulgare est une grande plante (de 30 à plus de 150 cm de hauteur) présentant des tiges rigides épineuses.
 </t>
         </is>
       </c>
@@ -579,14 +591,195 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont alternes, vertes sur les deux faces, couvertes d'épines sur la face supérieure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chardon_vulgaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chardon_vulgaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence, qui apparaît entre juin et octobre, est un racème de capitules et mesure de 30 à 50 mm. Les fleurs, roses, sont hermaphrodites et mellifères. La pollinisation  entomogame ou autogame.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chardon_vulgaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chardon_vulgaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est un akène soyeux, semblable à celui du pissenlit, qui se dissémine par anémochorie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chardon_vulgaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chardon_vulgaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cirse commun a de nombreuses appellations locales dont Cirse à feuilles lancéolées ; Cirse commun ; Cirse lancéolé ; Chardon lancéolé ; Chardon vulgaire ou commun ; Gros chardon ; Piqueux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chardon_vulgaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chardon_vulgaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Habitat, distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cirsium vulgare est une plante commune qui pousse en terrain découvert (chemins, clairières, décombres, terrains vagues...). On la rencontre sur tous les continents soit à l'état spontané (Europe, Asie, Afrique du Nord) soit naturalisé (Afrique subsaharienne, Amérique du Nord, Amérique du Sud, Australie, Océanie). En France elle est présente sur tout le territoire y compris en Corse.
-Caractère envahissant
-L'espèce est envahissante en Nouvelle-Calédonie[2], où elle a été introduite accidentellement dans le fourrage d'importation en 1969. Les infestations concernent surtout la côte ouest[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chardon_vulgaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chardon_vulgaire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Habitat, distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est envahissante en Nouvelle-Calédonie, où elle a été introduite accidentellement dans le fourrage d'importation en 1969. Les infestations concernent surtout la côte ouest.
 </t>
         </is>
       </c>
